--- a/BigPicture/Assets/Resources/DataSheets/Monster/MonsterElement.xlsx
+++ b/BigPicture/Assets/Resources/DataSheets/Monster/MonsterElement.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Unity\BigPicture\BigPicture\Assets\Resources\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Unity\BigPicture\BigPicture\Assets\Resources\DataSheets\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="스텟" sheetId="1" r:id="rId1"/>
+    <sheet name="분류" sheetId="2" r:id="rId2"/>
+    <sheet name="그룹조합" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Tribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,72 +67,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EyeSight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job1</t>
+  </si>
+  <si>
+    <t>Job2</t>
+  </si>
+  <si>
+    <t>Job3</t>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teruteru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pillbug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터(활)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터(바법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞잡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터(마법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘이 쎔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EyeSight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tribe0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tribe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job1</t>
-  </si>
-  <si>
-    <t>Job2</t>
-  </si>
-  <si>
-    <t>Job3</t>
-  </si>
-  <si>
-    <t>탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앞잡이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번 조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번 조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱2 지원1 앞1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱1 지원2 앞2</t>
+    <t>힘이 약함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 + 디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데미지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 민첩도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 물리 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 마법 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 실제 회복률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상대의 spell을 받아옴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다가 하겠슴다…ㅜㅜㅜㅜ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +252,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -171,18 +304,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -234,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:K9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:K16" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K16"/>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="Tribe" name="Tribe">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Tribe" xmlDataType="integer"/>
@@ -572,20 +926,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
@@ -593,7 +947,7 @@
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,13 +976,13 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -636,40 +990,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -680,241 +1022,181 @@
         <v>6</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
       <c r="E5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -923,44 +1205,496 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="O9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7">
+        <f>C20+(I20+D20)/10*I20/10</f>
+        <v>3.12</v>
+      </c>
+      <c r="E23" s="11">
+        <f>D23+(I20+D20)/100</f>
+        <v>3.16</v>
+      </c>
+      <c r="F23" s="12">
+        <f>D23-(I20+D20)/100</f>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="8">
+        <f>D20+(I20+D20)/10*I20/10</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E24" s="13">
+        <f>D24+(I20+D20)/100</f>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="F24" s="14">
+        <f>D24-(I20+D20)/100</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8">
+        <f>E20+(D20+I20)/10</f>
+        <v>5.4</v>
+      </c>
+      <c r="E25" s="13">
+        <f>D25+(I20+D20)/100</f>
+        <v>5.44</v>
+      </c>
+      <c r="F25" s="14">
+        <f>D25-(I20+D20)/100</f>
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="9">
+        <f>F20*(E20+I20)/100</f>
+        <v>0.32</v>
+      </c>
+      <c r="E26" s="15">
+        <f>D26+(I20+D20)/100</f>
+        <v>0.36</v>
+      </c>
+      <c r="F26" s="16">
+        <f>D26-(I20+D20)/100</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="8">
+        <f>(C20/100)*E20+F20*(G20+I20)/10</f>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="E27" s="13">
+        <f>D27+(I20+D20)/100</f>
+        <v>2.9899999999999998</v>
+      </c>
+      <c r="F27" s="14">
+        <f>D27-(I20+D20)/100</f>
+        <v>2.9099999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="8">
+        <f>H20+D20+I20/10</f>
+        <v>1.3</v>
+      </c>
+      <c r="E28" s="17">
+        <f>D28+(I20+D20)/100</f>
+        <v>1.34</v>
+      </c>
+      <c r="F28" s="18">
+        <f>D28-(I20+D20)/100</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M20" t="s">
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
         <v>24</v>
       </c>
-      <c r="N20" t="s">
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
         <v>26</v>
       </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G22:H22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -968,4 +1702,108 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>